--- a/TOC/2024.ASDE Training TOC - v4.xlsx
+++ b/TOC/2024.ASDE Training TOC - v4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Virtual Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D802B-09B6-4430-9374-72FB701C1EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4778017-1FD8-4252-929D-8146C1413864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18923,8 +18923,8 @@
   <dimension ref="A1:M1874"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
+      <pane ySplit="2" topLeftCell="A896" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
